--- a/vba_seminar_test_data.xlsx
+++ b/vba_seminar_test_data.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D0E784-C0E8-48D0-9516-827E715EB6A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A0857-B3EB-476D-AAC8-1BE51A7C50CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="5550" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="Original (2)" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>individual id</t>
   </si>
@@ -444,7 +443,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -2177,1744 +2176,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE8B940-65AC-4E41-B9B5-0F4C8FD2B1D1}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>906765</v>
-      </c>
-      <c r="B2">
-        <v>53147</v>
-      </c>
-      <c r="C2">
-        <v>43759</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>205471</v>
-      </c>
-      <c r="B3">
-        <v>75221</v>
-      </c>
-      <c r="C3">
-        <v>27346</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>288574</v>
-      </c>
-      <c r="B4">
-        <v>82588</v>
-      </c>
-      <c r="C4">
-        <v>37005</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>177926</v>
-      </c>
-      <c r="B5">
-        <v>63477</v>
-      </c>
-      <c r="C5">
-        <v>26440</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>692112</v>
-      </c>
-      <c r="B6">
-        <v>90319</v>
-      </c>
-      <c r="C6">
-        <v>35261</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>241007</v>
-      </c>
-      <c r="B7">
-        <v>67747</v>
-      </c>
-      <c r="C7">
-        <v>47369</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>773787</v>
-      </c>
-      <c r="B8">
-        <v>90113</v>
-      </c>
-      <c r="C8">
-        <v>29263</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>370092</v>
-      </c>
-      <c r="B9">
-        <v>61847</v>
-      </c>
-      <c r="C9">
-        <v>-8909</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>962214</v>
-      </c>
-      <c r="B10">
-        <v>55052</v>
-      </c>
-      <c r="C10">
-        <v>5924</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>615360</v>
-      </c>
-      <c r="B11">
-        <v>54936</v>
-      </c>
-      <c r="C11">
-        <v>27126</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>619281</v>
-      </c>
-      <c r="B12">
-        <v>60434</v>
-      </c>
-      <c r="C12">
-        <v>46001</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>114409</v>
-      </c>
-      <c r="B13">
-        <v>85999</v>
-      </c>
-      <c r="C13">
-        <v>27824</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>873386</v>
-      </c>
-      <c r="B14">
-        <v>60086</v>
-      </c>
-      <c r="C14">
-        <v>26834</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>792064</v>
-      </c>
-      <c r="B15">
-        <v>63914</v>
-      </c>
-      <c r="C15">
-        <v>47311</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>156925</v>
-      </c>
-      <c r="B16">
-        <v>72644</v>
-      </c>
-      <c r="C16">
-        <v>21334</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>247349</v>
-      </c>
-      <c r="B17">
-        <v>81211</v>
-      </c>
-      <c r="C17">
-        <v>43531</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>241642</v>
-      </c>
-      <c r="B18">
-        <v>88747</v>
-      </c>
-      <c r="C18">
-        <v>47691</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>437638</v>
-      </c>
-      <c r="B19">
-        <v>77805</v>
-      </c>
-      <c r="C19">
-        <v>22999</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>421613</v>
-      </c>
-      <c r="B20">
-        <v>65728</v>
-      </c>
-      <c r="C20">
-        <v>27703</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>274601</v>
-      </c>
-      <c r="B21">
-        <v>77476</v>
-      </c>
-      <c r="C21">
-        <v>17384</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>734881</v>
-      </c>
-      <c r="B22">
-        <v>81226</v>
-      </c>
-      <c r="C22">
-        <v>12696</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>591952</v>
-      </c>
-      <c r="B23">
-        <v>69702</v>
-      </c>
-      <c r="C23">
-        <v>38894</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>137386</v>
-      </c>
-      <c r="B24">
-        <v>80471</v>
-      </c>
-      <c r="C24">
-        <v>-1538</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>226569</v>
-      </c>
-      <c r="B25">
-        <v>60983</v>
-      </c>
-      <c r="C25">
-        <v>23273</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>763590</v>
-      </c>
-      <c r="B26">
-        <v>60229</v>
-      </c>
-      <c r="C26">
-        <v>35310</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>983278</v>
-      </c>
-      <c r="B27">
-        <v>76211</v>
-      </c>
-      <c r="C27">
-        <v>58716</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>822517</v>
-      </c>
-      <c r="B28">
-        <v>79835</v>
-      </c>
-      <c r="C28">
-        <v>7157</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>369866</v>
-      </c>
-      <c r="B29">
-        <v>82575</v>
-      </c>
-      <c r="C29">
-        <v>-21987</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>168850</v>
-      </c>
-      <c r="B30">
-        <v>61984</v>
-      </c>
-      <c r="C30">
-        <v>43158</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>684954</v>
-      </c>
-      <c r="B31">
-        <v>78223</v>
-      </c>
-      <c r="C31">
-        <v>24063</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>352323</v>
-      </c>
-      <c r="B32">
-        <v>66224</v>
-      </c>
-      <c r="C32">
-        <v>43712</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>737862</v>
-      </c>
-      <c r="B33">
-        <v>56707</v>
-      </c>
-      <c r="C33">
-        <v>19818</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>771570</v>
-      </c>
-      <c r="B34">
-        <v>74065</v>
-      </c>
-      <c r="C34">
-        <v>43726</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>603847</v>
-      </c>
-      <c r="B35">
-        <v>80297</v>
-      </c>
-      <c r="C35">
-        <v>47000</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>848399</v>
-      </c>
-      <c r="B36">
-        <v>87438</v>
-      </c>
-      <c r="C36">
-        <v>-20035</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>445388</v>
-      </c>
-      <c r="B37">
-        <v>68205</v>
-      </c>
-      <c r="C37">
-        <v>37699</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>905922</v>
-      </c>
-      <c r="B38">
-        <v>68650</v>
-      </c>
-      <c r="C38">
-        <v>44054</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>727441</v>
-      </c>
-      <c r="B39">
-        <v>78840</v>
-      </c>
-      <c r="C39">
-        <v>19484</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>782346</v>
-      </c>
-      <c r="B40">
-        <v>92478</v>
-      </c>
-      <c r="C40">
-        <v>10923</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>830100</v>
-      </c>
-      <c r="B41">
-        <v>64032</v>
-      </c>
-      <c r="C41">
-        <v>61890</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>933648</v>
-      </c>
-      <c r="B42">
-        <v>62393</v>
-      </c>
-      <c r="C42">
-        <v>18272</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>314722</v>
-      </c>
-      <c r="B43">
-        <v>74750</v>
-      </c>
-      <c r="C43">
-        <v>50937</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>407557</v>
-      </c>
-      <c r="B44">
-        <v>75426</v>
-      </c>
-      <c r="C44">
-        <v>60297</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>984628</v>
-      </c>
-      <c r="B45">
-        <v>61568</v>
-      </c>
-      <c r="C45">
-        <v>63428</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>998977</v>
-      </c>
-      <c r="B46">
-        <v>59308</v>
-      </c>
-      <c r="C46">
-        <v>12301</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>342682</v>
-      </c>
-      <c r="B47">
-        <v>88978</v>
-      </c>
-      <c r="C47">
-        <v>18301</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>998145</v>
-      </c>
-      <c r="B48">
-        <v>78028</v>
-      </c>
-      <c r="C48">
-        <v>24794</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>151189</v>
-      </c>
-      <c r="B49">
-        <v>68903</v>
-      </c>
-      <c r="C49">
-        <v>11835</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>674782</v>
-      </c>
-      <c r="B50">
-        <v>66021</v>
-      </c>
-      <c r="C50">
-        <v>38512</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>858657</v>
-      </c>
-      <c r="B51">
-        <v>63625</v>
-      </c>
-      <c r="C51">
-        <v>37456</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>230197</v>
-      </c>
-      <c r="B52">
-        <v>73653</v>
-      </c>
-      <c r="C52">
-        <v>48711</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>753139</v>
-      </c>
-      <c r="B53">
-        <v>79764</v>
-      </c>
-      <c r="C53">
-        <v>38762</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>453068</v>
-      </c>
-      <c r="B54">
-        <v>65084</v>
-      </c>
-      <c r="C54">
-        <v>38135</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>568619</v>
-      </c>
-      <c r="B55">
-        <v>66948</v>
-      </c>
-      <c r="C55">
-        <v>32146</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>574769</v>
-      </c>
-      <c r="B56">
-        <v>62104</v>
-      </c>
-      <c r="C56">
-        <v>-28075</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>723722</v>
-      </c>
-      <c r="B57">
-        <v>68498</v>
-      </c>
-      <c r="C57">
-        <v>18742</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>555836</v>
-      </c>
-      <c r="B58">
-        <v>73087</v>
-      </c>
-      <c r="C58">
-        <v>24888</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>285591</v>
-      </c>
-      <c r="B59">
-        <v>84722</v>
-      </c>
-      <c r="C59">
-        <v>47410</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>876999</v>
-      </c>
-      <c r="B60">
-        <v>60857</v>
-      </c>
-      <c r="C60">
-        <v>56022</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>173485</v>
-      </c>
-      <c r="B61">
-        <v>76574</v>
-      </c>
-      <c r="C61">
-        <v>25171</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>927966</v>
-      </c>
-      <c r="B62">
-        <v>54562</v>
-      </c>
-      <c r="C62">
-        <v>37005</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>871181</v>
-      </c>
-      <c r="B63">
-        <v>58473</v>
-      </c>
-      <c r="C63">
-        <v>43957</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>396828</v>
-      </c>
-      <c r="B64">
-        <v>70894</v>
-      </c>
-      <c r="C64">
-        <v>50636</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>701286</v>
-      </c>
-      <c r="B65">
-        <v>80851</v>
-      </c>
-      <c r="C65">
-        <v>24527</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>603939</v>
-      </c>
-      <c r="B66">
-        <v>58345</v>
-      </c>
-      <c r="C66">
-        <v>30780</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>443890</v>
-      </c>
-      <c r="B67">
-        <v>38044</v>
-      </c>
-      <c r="C67">
-        <v>47642</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>110563</v>
-      </c>
-      <c r="B68">
-        <v>73388</v>
-      </c>
-      <c r="C68">
-        <v>36562</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>220287</v>
-      </c>
-      <c r="B69">
-        <v>75705</v>
-      </c>
-      <c r="C69">
-        <v>37954</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>582478</v>
-      </c>
-      <c r="B70">
-        <v>58970</v>
-      </c>
-      <c r="C70">
-        <v>39473</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>303466</v>
-      </c>
-      <c r="B71">
-        <v>69041</v>
-      </c>
-      <c r="C71">
-        <v>43704</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>139322</v>
-      </c>
-      <c r="B72">
-        <v>85911</v>
-      </c>
-      <c r="C72">
-        <v>52067</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>185469</v>
-      </c>
-      <c r="B73">
-        <v>76807</v>
-      </c>
-      <c r="C73">
-        <v>31871</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>656225</v>
-      </c>
-      <c r="B74">
-        <v>75014</v>
-      </c>
-      <c r="C74">
-        <v>10686</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>248079</v>
-      </c>
-      <c r="B75">
-        <v>84512</v>
-      </c>
-      <c r="C75">
-        <v>39071</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>670931</v>
-      </c>
-      <c r="B76">
-        <v>66126</v>
-      </c>
-      <c r="C76">
-        <v>24164</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>631166</v>
-      </c>
-      <c r="B77">
-        <v>85474</v>
-      </c>
-      <c r="C77">
-        <v>9019</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>521028</v>
-      </c>
-      <c r="B78">
-        <v>60507</v>
-      </c>
-      <c r="C78">
-        <v>18315</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>577000</v>
-      </c>
-      <c r="B79">
-        <v>62227</v>
-      </c>
-      <c r="C79">
-        <v>9036</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>139534</v>
-      </c>
-      <c r="B80">
-        <v>75874</v>
-      </c>
-      <c r="C80">
-        <v>16570</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>843621</v>
-      </c>
-      <c r="B81">
-        <v>65661</v>
-      </c>
-      <c r="C81">
-        <v>43427</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>383238</v>
-      </c>
-      <c r="B82">
-        <v>60730</v>
-      </c>
-      <c r="C82">
-        <v>13141</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>676377</v>
-      </c>
-      <c r="B83">
-        <v>63081</v>
-      </c>
-      <c r="C83">
-        <v>29413</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>258552</v>
-      </c>
-      <c r="B84">
-        <v>64559</v>
-      </c>
-      <c r="C84">
-        <v>928</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>826019</v>
-      </c>
-      <c r="B85">
-        <v>55332</v>
-      </c>
-      <c r="C85">
-        <v>66620</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>332062</v>
-      </c>
-      <c r="B86">
-        <v>59033</v>
-      </c>
-      <c r="C86">
-        <v>61209</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>932637</v>
-      </c>
-      <c r="B87">
-        <v>100942</v>
-      </c>
-      <c r="C87">
-        <v>31476</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>345475</v>
-      </c>
-      <c r="B88">
-        <v>80837</v>
-      </c>
-      <c r="C88">
-        <v>42320</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>281935</v>
-      </c>
-      <c r="B89">
-        <v>57938</v>
-      </c>
-      <c r="C89">
-        <v>23684</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>550957</v>
-      </c>
-      <c r="B90">
-        <v>82847</v>
-      </c>
-      <c r="C90">
-        <v>10151</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>900733</v>
-      </c>
-      <c r="B91">
-        <v>74523</v>
-      </c>
-      <c r="C91">
-        <v>35693</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>571717</v>
-      </c>
-      <c r="B92">
-        <v>63012</v>
-      </c>
-      <c r="C92">
-        <v>22159</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>339542</v>
-      </c>
-      <c r="B93">
-        <v>74264</v>
-      </c>
-      <c r="C93">
-        <v>11840</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>917903</v>
-      </c>
-      <c r="B94">
-        <v>66508</v>
-      </c>
-      <c r="C94">
-        <v>14965</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>591770</v>
-      </c>
-      <c r="B95">
-        <v>72278</v>
-      </c>
-      <c r="C95">
-        <v>46473</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>465462</v>
-      </c>
-      <c r="B96">
-        <v>67026</v>
-      </c>
-      <c r="C96">
-        <v>77768</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>232820</v>
-      </c>
-      <c r="B97">
-        <v>65396</v>
-      </c>
-      <c r="C97">
-        <v>-7812</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>176690</v>
-      </c>
-      <c r="B98">
-        <v>65938</v>
-      </c>
-      <c r="C98">
-        <v>10525</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>809065</v>
-      </c>
-      <c r="B99">
-        <v>60068</v>
-      </c>
-      <c r="C99">
-        <v>27671</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>558001</v>
-      </c>
-      <c r="B100">
-        <v>86035</v>
-      </c>
-      <c r="C100">
-        <v>4872</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>299892</v>
-      </c>
-      <c r="B101">
-        <v>86345</v>
-      </c>
-      <c r="C101">
-        <v>6184</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>